--- a/va_facility_data_2025-02-20/Samuel S. Stratton Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Samuel%20S.%20Stratton%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Samuel S. Stratton Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Samuel%20S.%20Stratton%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4d7968ad26294f03aac64eafa079d996"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R26b46bdb479743f59d24e731659cea1d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R000f00716c304d30a1bd3e7d53865f52"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9becf981f07b4e31a416cb595c192bb2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2b6b40dbfaec43fb80ab3143fae70a49"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R959fc0f7eac14581ac39b14a6eb1c133"/>
   </x:sheets>
 </x:workbook>
 </file>
